--- a/data/mall-swarm/mall-auth_structure.xlsx
+++ b/data/mall-swarm/mall-auth_structure.xlsx
@@ -340,43 +340,46 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>USERNAME_PASSWORD_ERROR</t>
+  </si>
+  <si>
     <t>ACCOUNT_DISABLED</t>
   </si>
   <si>
     <t>ACCOUNT_EXPIRED</t>
   </si>
   <si>
+    <t>LOGIN_SUCCESS</t>
+  </si>
+  <si>
+    <t>ACCOUNT_LOCKED</t>
+  </si>
+  <si>
+    <t>PERMISSION_DENIED</t>
+  </si>
+  <si>
     <t>CREDENTIALS_EXPIRED</t>
   </si>
   <si>
-    <t>PERMISSION_DENIED</t>
-  </si>
-  <si>
-    <t>LOGIN_SUCCESS</t>
-  </si>
-  <si>
-    <t>ACCOUNT_LOCKED</t>
-  </si>
-  <si>
-    <t>USERNAME_PASSWORD_ERROR</t>
-  </si>
-  <si>
     <t>tokenEndpoint</t>
   </si>
   <si>
     <t>org.springframework.security.oauth2.provider.endpoint.TokenEndpoint</t>
   </si>
   <si>
+    <t>authenticationManager</t>
+  </si>
+  <si>
     <t>passwordEncoder</t>
   </si>
   <si>
+    <t>userDetailsService</t>
+  </si>
+  <si>
     <t>jwtTokenEnhancer</t>
   </si>
   <si>
-    <t>userDetailsService</t>
-  </si>
-  <si>
-    <t>authenticationManager</t>
+    <t>expiresIn</t>
   </si>
   <si>
     <t>tokenHead</t>
@@ -385,9 +388,6 @@
     <t>token</t>
   </si>
   <si>
-    <t>expiresIn</t>
-  </si>
-  <si>
     <t>refreshToken</t>
   </si>
   <si>
@@ -403,22 +403,22 @@
     <t>adminService</t>
   </si>
   <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>authorities</t>
+  </si>
+  <si>
     <t>clientId</t>
   </si>
   <si>
+    <t>username</t>
+  </si>
+  <si>
     <t>enabled</t>
   </si>
   <si>
     <t>id</t>
-  </si>
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>authorities</t>
   </si>
   <si>
     <t>keyPair</t>
@@ -3099,7 +3099,7 @@
         <v>81</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11">
@@ -3113,7 +3113,7 @@
         <v>81</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12">
@@ -3141,7 +3141,7 @@
         <v>81</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14">
@@ -3155,7 +3155,7 @@
         <v>81</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15">
@@ -3183,7 +3183,7 @@
         <v>81</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17">
@@ -3247,7 +3247,7 @@
         <v>59</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>81</v>
@@ -3261,13 +3261,13 @@
         <v>59</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>81</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23">
@@ -3275,13 +3275,13 @@
         <v>59</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>81</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24">
@@ -3323,7 +3323,7 @@
         <v>81</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>77</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27">
@@ -3337,7 +3337,7 @@
         <v>81</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>83</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28">
@@ -3365,7 +3365,7 @@
         <v>81</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>13</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30">
@@ -3379,7 +3379,7 @@
         <v>81</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31">

--- a/data/mall-swarm/mall-auth_structure.xlsx
+++ b/data/mall-swarm/mall-auth_structure.xlsx
@@ -15,12 +15,14 @@
     <sheet name="interfaceToInterfaceRelations" r:id="rId9" sheetId="7"/>
     <sheet name="fieldClassRelations" r:id="rId10" sheetId="8"/>
     <sheet name="fieldInterfaceRelations" r:id="rId11" sheetId="9"/>
+    <sheet name="classNumberOfLines" r:id="rId12" sheetId="10"/>
+    <sheet name="methodNumberOfLines" r:id="rId13" sheetId="11"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="165">
   <si>
     <t>Class Name</t>
   </si>
@@ -343,52 +345,55 @@
     <t>USERNAME_PASSWORD_ERROR</t>
   </si>
   <si>
+    <t>ACCOUNT_LOCKED</t>
+  </si>
+  <si>
+    <t>LOGIN_SUCCESS</t>
+  </si>
+  <si>
+    <t>ACCOUNT_EXPIRED</t>
+  </si>
+  <si>
+    <t>CREDENTIALS_EXPIRED</t>
+  </si>
+  <si>
     <t>ACCOUNT_DISABLED</t>
   </si>
   <si>
-    <t>ACCOUNT_EXPIRED</t>
-  </si>
-  <si>
-    <t>LOGIN_SUCCESS</t>
-  </si>
-  <si>
-    <t>ACCOUNT_LOCKED</t>
-  </si>
-  <si>
     <t>PERMISSION_DENIED</t>
   </si>
   <si>
-    <t>CREDENTIALS_EXPIRED</t>
-  </si>
-  <si>
     <t>tokenEndpoint</t>
   </si>
   <si>
     <t>org.springframework.security.oauth2.provider.endpoint.TokenEndpoint</t>
   </si>
   <si>
+    <t>jwtTokenEnhancer</t>
+  </si>
+  <si>
     <t>authenticationManager</t>
   </si>
   <si>
+    <t>userDetailsService</t>
+  </si>
+  <si>
     <t>passwordEncoder</t>
   </si>
   <si>
-    <t>userDetailsService</t>
-  </si>
-  <si>
-    <t>jwtTokenEnhancer</t>
-  </si>
-  <si>
     <t>expiresIn</t>
   </si>
   <si>
+    <t>refreshToken</t>
+  </si>
+  <si>
     <t>tokenHead</t>
   </si>
   <si>
     <t>token</t>
   </si>
   <si>
-    <t>refreshToken</t>
+    <t>adminService</t>
   </si>
   <si>
     <t>request</t>
@@ -400,27 +405,24 @@
     <t>memberService</t>
   </si>
   <si>
-    <t>adminService</t>
+    <t>clientId</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>username</t>
   </si>
   <si>
     <t>password</t>
   </si>
   <si>
+    <t>enabled</t>
+  </si>
+  <si>
     <t>authorities</t>
   </si>
   <si>
-    <t>clientId</t>
-  </si>
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>enabled</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
     <t>keyPair</t>
   </si>
   <si>
@@ -464,6 +466,57 @@
   </si>
   <si>
     <t>Target Field Name</t>
+  </si>
+  <si>
+    <t>Number of Lines</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>181</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>17</t>
   </si>
 </sst>
 </file>
@@ -2899,6 +2952,798 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>152</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C58"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="C32" t="s" s="0">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="C33" t="s" s="0">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C34" t="s" s="0">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C35" t="s" s="0">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="C36" t="s" s="0">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="C37" t="s" s="0">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="C38" t="s" s="0">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="C39" t="s" s="0">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="C40" t="s" s="0">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="C41" t="s" s="0">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="C42" t="s" s="0">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="C43" t="s" s="0">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="C44" t="s" s="0">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="C45" t="s" s="0">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="C46" t="s" s="0">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="B47" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="C47" t="s" s="0">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="B48" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="C48" t="s" s="0">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="B49" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="C49" t="s" s="0">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="B50" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="C50" t="s" s="0">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="B51" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="C51" t="s" s="0">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="B52" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="C52" t="s" s="0">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="B53" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C53" t="s" s="0">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="B54" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="C54" t="s" s="0">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="B55" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C55" t="s" s="0">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="B56" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C56" t="s" s="0">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="B57" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="C57" t="s" s="0">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="B58" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="C58" t="s" s="0">
+        <v>161</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:D3"/>
@@ -3099,7 +3944,7 @@
         <v>81</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11">
@@ -3113,7 +3958,7 @@
         <v>81</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12">
@@ -3141,7 +3986,7 @@
         <v>81</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14">
@@ -3211,7 +4056,7 @@
         <v>81</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>124</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19">
@@ -3219,13 +4064,13 @@
         <v>65</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>81</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>4</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20">
@@ -3239,7 +4084,7 @@
         <v>81</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>72</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
@@ -3261,13 +4106,13 @@
         <v>59</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>81</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23">
@@ -3275,13 +4120,13 @@
         <v>59</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>81</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24">
@@ -3323,7 +4168,7 @@
         <v>81</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27">
@@ -3379,7 +4224,7 @@
         <v>81</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31">

--- a/data/mall-swarm/mall-auth_structure.xlsx
+++ b/data/mall-swarm/mall-auth_structure.xlsx
@@ -342,24 +342,24 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>ACCOUNT_DISABLED</t>
+  </si>
+  <si>
+    <t>ACCOUNT_EXPIRED</t>
+  </si>
+  <si>
     <t>USERNAME_PASSWORD_ERROR</t>
   </si>
   <si>
     <t>ACCOUNT_LOCKED</t>
   </si>
   <si>
+    <t>CREDENTIALS_EXPIRED</t>
+  </si>
+  <si>
     <t>LOGIN_SUCCESS</t>
   </si>
   <si>
-    <t>ACCOUNT_EXPIRED</t>
-  </si>
-  <si>
-    <t>CREDENTIALS_EXPIRED</t>
-  </si>
-  <si>
-    <t>ACCOUNT_DISABLED</t>
-  </si>
-  <si>
     <t>PERMISSION_DENIED</t>
   </si>
   <si>
@@ -369,28 +369,31 @@
     <t>org.springframework.security.oauth2.provider.endpoint.TokenEndpoint</t>
   </si>
   <si>
+    <t>passwordEncoder</t>
+  </si>
+  <si>
+    <t>userDetailsService</t>
+  </si>
+  <si>
     <t>jwtTokenEnhancer</t>
   </si>
   <si>
     <t>authenticationManager</t>
   </si>
   <si>
-    <t>userDetailsService</t>
-  </si>
-  <si>
-    <t>passwordEncoder</t>
-  </si>
-  <si>
     <t>expiresIn</t>
   </si>
   <si>
+    <t>token</t>
+  </si>
+  <si>
     <t>refreshToken</t>
   </si>
   <si>
     <t>tokenHead</t>
   </si>
   <si>
-    <t>token</t>
+    <t>memberService</t>
   </si>
   <si>
     <t>adminService</t>
@@ -402,19 +405,16 @@
     <t>javax.servlet.http.HttpServletRequest</t>
   </si>
   <si>
-    <t>memberService</t>
+    <t>password</t>
   </si>
   <si>
     <t>clientId</t>
   </si>
   <si>
+    <t>username</t>
+  </si>
+  <si>
     <t>id</t>
-  </si>
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>password</t>
   </si>
   <si>
     <t>enabled</t>
@@ -3944,7 +3944,7 @@
         <v>81</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11">
@@ -3958,7 +3958,7 @@
         <v>81</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>47</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12">
@@ -3972,7 +3972,7 @@
         <v>81</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>65</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13">
@@ -3986,7 +3986,7 @@
         <v>81</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14">
@@ -4056,7 +4056,7 @@
         <v>81</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>72</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -4070,7 +4070,7 @@
         <v>81</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>125</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20">
@@ -4078,13 +4078,13 @@
         <v>65</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>81</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>4</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21">
@@ -4092,7 +4092,7 @@
         <v>59</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>81</v>
@@ -4106,7 +4106,7 @@
         <v>59</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>81</v>
@@ -4120,13 +4120,13 @@
         <v>59</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>81</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24">
@@ -4134,13 +4134,13 @@
         <v>59</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>81</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25">
@@ -4168,7 +4168,7 @@
         <v>81</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>83</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27">
@@ -4196,7 +4196,7 @@
         <v>81</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>13</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29">

--- a/data/mall-swarm/mall-auth_structure.xlsx
+++ b/data/mall-swarm/mall-auth_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="181">
   <si>
     <t>Class Name</t>
   </si>
@@ -342,43 +342,46 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>USERNAME_PASSWORD_ERROR</t>
+  </si>
+  <si>
     <t>ACCOUNT_DISABLED</t>
   </si>
   <si>
+    <t>CREDENTIALS_EXPIRED</t>
+  </si>
+  <si>
+    <t>PERMISSION_DENIED</t>
+  </si>
+  <si>
     <t>ACCOUNT_EXPIRED</t>
   </si>
   <si>
-    <t>USERNAME_PASSWORD_ERROR</t>
+    <t>LOGIN_SUCCESS</t>
   </si>
   <si>
     <t>ACCOUNT_LOCKED</t>
   </si>
   <si>
-    <t>CREDENTIALS_EXPIRED</t>
-  </si>
-  <si>
-    <t>LOGIN_SUCCESS</t>
-  </si>
-  <si>
-    <t>PERMISSION_DENIED</t>
-  </si>
-  <si>
     <t>tokenEndpoint</t>
   </si>
   <si>
     <t>org.springframework.security.oauth2.provider.endpoint.TokenEndpoint</t>
   </si>
   <si>
+    <t>authenticationManager</t>
+  </si>
+  <si>
+    <t>jwtTokenEnhancer</t>
+  </si>
+  <si>
+    <t>userDetailsService</t>
+  </si>
+  <si>
     <t>passwordEncoder</t>
   </si>
   <si>
-    <t>userDetailsService</t>
-  </si>
-  <si>
-    <t>jwtTokenEnhancer</t>
-  </si>
-  <si>
-    <t>authenticationManager</t>
+    <t>refreshToken</t>
   </si>
   <si>
     <t>expiresIn</t>
@@ -387,42 +390,39 @@
     <t>token</t>
   </si>
   <si>
-    <t>refreshToken</t>
-  </si>
-  <si>
     <t>tokenHead</t>
   </si>
   <si>
     <t>memberService</t>
   </si>
   <si>
+    <t>request</t>
+  </si>
+  <si>
+    <t>javax.servlet.http.HttpServletRequest</t>
+  </si>
+  <si>
     <t>adminService</t>
   </si>
   <si>
-    <t>request</t>
-  </si>
-  <si>
-    <t>javax.servlet.http.HttpServletRequest</t>
+    <t>id</t>
   </si>
   <si>
     <t>password</t>
   </si>
   <si>
+    <t>authorities</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>enabled</t>
+  </si>
+  <si>
     <t>clientId</t>
   </si>
   <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>enabled</t>
-  </si>
-  <si>
-    <t>authorities</t>
-  </si>
-  <si>
     <t>keyPair</t>
   </si>
   <si>
@@ -471,52 +471,100 @@
     <t>Number of Lines</t>
   </si>
   <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>178</t>
+  </si>
+  <si>
+    <t>MessageConstant()</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>AuthController()</t>
+  </si>
+  <si>
+    <t>SwaggerConfig()</t>
+  </si>
+  <si>
+    <t>MallAuthApplication()</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>4</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>36</t>
+    <t>Oauth2ServerConfig(org.springframework.security.crypto.password.PasswordEncoder, com.macro.mall.auth.service.impl.UserServiceImpl, org.springframework.security.authentication.AuthenticationManager, com.macro.mall.auth.component.JwtTokenEnhancer)</t>
+  </si>
+  <si>
+    <t>JwtTokenEnhancer()</t>
+  </si>
+  <si>
+    <t>WebSecurityConfig()</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>Oauth2TokenDto(java.lang.String, java.lang.String, java.lang.String, int)</t>
+  </si>
+  <si>
+    <t>Oauth2ExceptionHandler()</t>
+  </si>
+  <si>
+    <t>UserServiceImpl()</t>
+  </si>
+  <si>
+    <t>Oauth2TokenDto$Oauth2TokenDtoBuilder()</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>SecurityUser()</t>
+  </si>
+  <si>
+    <t>SecurityUser(com.macro.mall.common.domain.UserDto)</t>
   </si>
   <si>
     <t>11</t>
   </si>
   <si>
-    <t>141</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>181</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>17</t>
+    <t>KeyPairController()</t>
   </si>
 </sst>
 </file>
@@ -2973,7 +3021,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3">
@@ -2981,7 +3029,7 @@
         <v>26</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4">
@@ -2989,7 +3037,7 @@
         <v>98</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5">
@@ -2997,7 +3045,7 @@
         <v>27</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6">
@@ -3005,7 +3053,7 @@
         <v>32</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7">
@@ -3013,7 +3061,7 @@
         <v>34</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8">
@@ -3021,7 +3069,7 @@
         <v>42</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9">
@@ -3029,7 +3077,7 @@
         <v>45</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10">
@@ -3037,7 +3085,7 @@
         <v>50</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11">
@@ -3045,7 +3093,7 @@
         <v>62</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12">
@@ -3053,7 +3101,7 @@
         <v>65</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13">
@@ -3061,7 +3109,7 @@
         <v>59</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14">
@@ -3069,7 +3117,7 @@
         <v>72</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15">
@@ -3077,7 +3125,7 @@
         <v>73</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16">
@@ -3085,7 +3133,7 @@
         <v>100</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -3095,7 +3143,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C58"/>
+  <dimension ref="A1:C72"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3125,32 +3173,32 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>98</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>99</v>
+        <v>159</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>140</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>28</v>
+        <v>162</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>160</v>
@@ -3158,57 +3206,57 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>140</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>35</v>
+        <v>163</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>140</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>140</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>40</v>
+        <v>164</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11">
@@ -3216,84 +3264,84 @@
         <v>34</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>140</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>56</v>
+        <v>167</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>51</v>
+        <v>168</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>160</v>
@@ -3301,32 +3349,32 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>54</v>
+        <v>169</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>160</v>
@@ -3337,10 +3385,10 @@
         <v>50</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23">
@@ -3348,10 +3396,10 @@
         <v>50</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24">
@@ -3359,10 +3407,10 @@
         <v>50</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25">
@@ -3370,10 +3418,10 @@
         <v>50</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26">
@@ -3381,10 +3429,10 @@
         <v>50</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27">
@@ -3392,117 +3440,117 @@
         <v>50</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>140</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>71</v>
+        <v>5</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>149</v>
+        <v>170</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>12</v>
+        <v>171</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>140</v>
+        <v>152</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>86</v>
+        <v>172</v>
       </c>
       <c r="C37" t="s" s="0">
         <v>160</v>
@@ -3510,21 +3558,21 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="C39" t="s" s="0">
         <v>160</v>
@@ -3532,90 +3580,90 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="C44" t="s" s="0">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="C45" t="s" s="0">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>78</v>
+        <v>174</v>
       </c>
       <c r="C46" t="s" s="0">
-        <v>160</v>
+        <v>139</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="C47" t="s" s="0">
-        <v>160</v>
+        <v>140</v>
       </c>
     </row>
     <row r="48">
@@ -3623,10 +3671,10 @@
         <v>73</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C48" t="s" s="0">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="49">
@@ -3634,10 +3682,10 @@
         <v>73</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="C49" t="s" s="0">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="50">
@@ -3645,10 +3693,10 @@
         <v>73</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C50" t="s" s="0">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="51">
@@ -3656,10 +3704,10 @@
         <v>73</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C51" t="s" s="0">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="52">
@@ -3667,10 +3715,10 @@
         <v>73</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="C52" t="s" s="0">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="53">
@@ -3678,10 +3726,10 @@
         <v>73</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="C53" t="s" s="0">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="54">
@@ -3689,10 +3737,10 @@
         <v>73</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="C54" t="s" s="0">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="55">
@@ -3700,10 +3748,10 @@
         <v>73</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="C55" t="s" s="0">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="56">
@@ -3711,10 +3759,10 @@
         <v>73</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="C56" t="s" s="0">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="57">
@@ -3722,21 +3770,175 @@
         <v>73</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C57" t="s" s="0">
-        <v>140</v>
+        <v>152</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="B58" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="C58" t="s" s="0">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="B59" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="C59" t="s" s="0">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="B60" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="C60" t="s" s="0">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="B61" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="C61" t="s" s="0">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="B62" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="C62" t="s" s="0">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="B63" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="C63" t="s" s="0">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="B64" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C64" t="s" s="0">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="B65" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="C65" t="s" s="0">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="B66" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C66" t="s" s="0">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="B67" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C67" t="s" s="0">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="B68" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="C68" t="s" s="0">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="B69" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="C69" t="s" s="0">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="B70" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="C70" t="s" s="0">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="0">
         <v>100</v>
       </c>
-      <c r="B58" t="s" s="0">
+      <c r="B71" t="s" s="0">
         <v>101</v>
       </c>
-      <c r="C58" t="s" s="0">
-        <v>161</v>
+      <c r="C71" t="s" s="0">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="B72" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="C72" t="s" s="0">
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -3944,7 +4146,7 @@
         <v>81</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11">
@@ -3958,7 +4160,7 @@
         <v>81</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>65</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12">
@@ -3972,7 +4174,7 @@
         <v>81</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13">
@@ -3986,7 +4188,7 @@
         <v>81</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14">
@@ -4000,7 +4202,7 @@
         <v>81</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15">
@@ -4014,7 +4216,7 @@
         <v>81</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16">
@@ -4070,7 +4272,7 @@
         <v>81</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>72</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20">
@@ -4078,13 +4280,13 @@
         <v>65</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>81</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>126</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21">
@@ -4098,7 +4300,7 @@
         <v>81</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22">
@@ -4140,7 +4342,7 @@
         <v>81</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25">
@@ -4154,7 +4356,7 @@
         <v>81</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>13</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26">
@@ -4182,7 +4384,7 @@
         <v>81</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>13</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28">
@@ -4196,7 +4398,7 @@
         <v>81</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>83</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29">
@@ -4224,7 +4426,7 @@
         <v>81</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>87</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31">

--- a/data/mall-swarm/mall-auth_structure.xlsx
+++ b/data/mall-swarm/mall-auth_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="180">
   <si>
     <t>Class Name</t>
   </si>
@@ -502,9 +502,6 @@
   </si>
   <si>
     <t>MessageConstant()</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
   <si>
     <t>12</t>
@@ -3179,7 +3176,7 @@
         <v>159</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>160</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4">
@@ -3190,7 +3187,7 @@
         <v>99</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5">
@@ -3198,10 +3195,10 @@
         <v>98</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>160</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6">
@@ -3231,10 +3228,10 @@
         <v>27</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>160</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9">
@@ -3253,10 +3250,10 @@
         <v>32</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>160</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11">
@@ -3300,7 +3297,7 @@
         <v>40</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15">
@@ -3311,7 +3308,7 @@
         <v>36</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16">
@@ -3319,7 +3316,7 @@
         <v>34</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>151</v>
@@ -3341,10 +3338,10 @@
         <v>42</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>160</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19">
@@ -3374,10 +3371,10 @@
         <v>45</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>160</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22">
@@ -3498,7 +3495,7 @@
         <v>5</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="33">
@@ -3520,7 +3517,7 @@
         <v>23</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="35">
@@ -3528,7 +3525,7 @@
         <v>50</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C35" t="s" s="0">
         <v>151</v>
@@ -3550,10 +3547,10 @@
         <v>62</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>160</v>
+        <v>140</v>
       </c>
     </row>
     <row r="38">
@@ -3572,10 +3569,10 @@
         <v>65</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>160</v>
+        <v>140</v>
       </c>
     </row>
     <row r="40">
@@ -3586,7 +3583,7 @@
         <v>67</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="41">
@@ -3597,7 +3594,7 @@
         <v>70</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="42">
@@ -3608,7 +3605,7 @@
         <v>71</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="43">
@@ -3619,7 +3616,7 @@
         <v>68</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="44">
@@ -3649,7 +3646,7 @@
         <v>59</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C46" t="s" s="0">
         <v>139</v>
@@ -3850,7 +3847,7 @@
         <v>5</v>
       </c>
       <c r="C64" t="s" s="0">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="65">
@@ -3872,7 +3869,7 @@
         <v>23</v>
       </c>
       <c r="C66" t="s" s="0">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="67">
@@ -3894,7 +3891,7 @@
         <v>80</v>
       </c>
       <c r="C68" t="s" s="0">
-        <v>160</v>
+        <v>140</v>
       </c>
     </row>
     <row r="69">
@@ -3902,7 +3899,7 @@
         <v>73</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C69" t="s" s="0">
         <v>139</v>
@@ -3913,10 +3910,10 @@
         <v>73</v>
       </c>
       <c r="B70" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="C70" t="s" s="0">
         <v>178</v>
-      </c>
-      <c r="C70" t="s" s="0">
-        <v>179</v>
       </c>
     </row>
     <row r="71">
@@ -3927,7 +3924,7 @@
         <v>101</v>
       </c>
       <c r="C71" t="s" s="0">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="72">
@@ -3935,10 +3932,10 @@
         <v>100</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C72" t="s" s="0">
-        <v>160</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/data/mall-swarm/mall-auth_structure.xlsx
+++ b/data/mall-swarm/mall-auth_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="181">
   <si>
     <t>Class Name</t>
   </si>
@@ -105,9 +105,15 @@
     <t>com.macro.mall.auth.constant.MessageConstant</t>
   </si>
   <si>
+    <t>MessageConstant()</t>
+  </si>
+  <si>
     <t>com.macro.mall.auth.config.SwaggerConfig</t>
   </si>
   <si>
+    <t>SwaggerConfig()</t>
+  </si>
+  <si>
     <t>springfoxHandlerProviderBeanPostProcessor()</t>
   </si>
   <si>
@@ -126,6 +132,9 @@
     <t>main(java.lang.String[])</t>
   </si>
   <si>
+    <t>MallAuthApplication()</t>
+  </si>
+  <si>
     <t>com.macro.mall.auth.config.Oauth2ServerConfig</t>
   </si>
   <si>
@@ -150,6 +159,9 @@
     <t>org.springframework.security.oauth2.provider.token.store.JwtAccessTokenConverter</t>
   </si>
   <si>
+    <t>Oauth2ServerConfig(org.springframework.security.crypto.password.PasswordEncoder, com.macro.mall.auth.service.impl.UserServiceImpl, org.springframework.security.authentication.AuthenticationManager, com.macro.mall.auth.component.JwtTokenEnhancer)</t>
+  </si>
+  <si>
     <t>com.macro.mall.auth.component.JwtTokenEnhancer</t>
   </si>
   <si>
@@ -159,6 +171,9 @@
     <t>org.springframework.security.oauth2.common.OAuth2AccessToken</t>
   </si>
   <si>
+    <t>JwtTokenEnhancer()</t>
+  </si>
+  <si>
     <t>com.macro.mall.auth.config.WebSecurityConfig</t>
   </si>
   <si>
@@ -174,6 +189,9 @@
     <t>org.springframework.security.crypto.password.PasswordEncoder</t>
   </si>
   <si>
+    <t>WebSecurityConfig()</t>
+  </si>
+  <si>
     <t>com.macro.mall.auth.domain.Oauth2TokenDto</t>
   </si>
   <si>
@@ -210,6 +228,12 @@
     <t>canEqual(java.lang.Object)</t>
   </si>
   <si>
+    <t>Oauth2TokenDto(java.lang.String, java.lang.String, java.lang.String, int)</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>com.macro.mall.auth.exception.Oauth2ExceptionHandler</t>
   </si>
   <si>
@@ -219,9 +243,15 @@
     <t>com.macro.mall.common.api.CommonResult</t>
   </si>
   <si>
+    <t>Oauth2ExceptionHandler()</t>
+  </si>
+  <si>
     <t>com.macro.mall.auth.service.impl.UserServiceImpl</t>
   </si>
   <si>
+    <t>UserServiceImpl()</t>
+  </si>
+  <si>
     <t>org.springframework.security.core.userdetails.UserDetails</t>
   </si>
   <si>
@@ -231,6 +261,9 @@
     <t>expiresIn(int)</t>
   </si>
   <si>
+    <t>Oauth2TokenDto$Oauth2TokenDtoBuilder()</t>
+  </si>
+  <si>
     <t>build()</t>
   </si>
   <si>
@@ -249,6 +282,9 @@
     <t>setPassword(java.lang.String)</t>
   </si>
   <si>
+    <t>SecurityUser(com.macro.mall.common.domain.UserDto)</t>
+  </si>
+  <si>
     <t>setAuthorities(java.util.Collection)</t>
   </si>
   <si>
@@ -270,6 +306,9 @@
     <t>private</t>
   </si>
   <si>
+    <t>SecurityUser()</t>
+  </si>
+  <si>
     <t>getId()</t>
   </si>
   <si>
@@ -324,6 +363,9 @@
     <t>postAccessToken(javax.servlet.http.HttpServletRequest, java.lang.String, java.lang.String, java.lang.String, java.lang.String, java.lang.String, java.lang.String)</t>
   </si>
   <si>
+    <t>AuthController()</t>
+  </si>
+  <si>
     <t>com.macro.mall.auth.controller.KeyPairController</t>
   </si>
   <si>
@@ -333,6 +375,9 @@
     <t>java.util.Map</t>
   </si>
   <si>
+    <t>KeyPairController()</t>
+  </si>
+  <si>
     <t>Field Name</t>
   </si>
   <si>
@@ -342,24 +387,24 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>LOGIN_SUCCESS</t>
+  </si>
+  <si>
+    <t>CREDENTIALS_EXPIRED</t>
+  </si>
+  <si>
+    <t>ACCOUNT_EXPIRED</t>
+  </si>
+  <si>
+    <t>PERMISSION_DENIED</t>
+  </si>
+  <si>
     <t>USERNAME_PASSWORD_ERROR</t>
   </si>
   <si>
     <t>ACCOUNT_DISABLED</t>
   </si>
   <si>
-    <t>CREDENTIALS_EXPIRED</t>
-  </si>
-  <si>
-    <t>PERMISSION_DENIED</t>
-  </si>
-  <si>
-    <t>ACCOUNT_EXPIRED</t>
-  </si>
-  <si>
-    <t>LOGIN_SUCCESS</t>
-  </si>
-  <si>
     <t>ACCOUNT_LOCKED</t>
   </si>
   <si>
@@ -369,30 +414,33 @@
     <t>org.springframework.security.oauth2.provider.endpoint.TokenEndpoint</t>
   </si>
   <si>
+    <t>userDetailsService</t>
+  </si>
+  <si>
     <t>authenticationManager</t>
   </si>
   <si>
+    <t>passwordEncoder</t>
+  </si>
+  <si>
     <t>jwtTokenEnhancer</t>
   </si>
   <si>
-    <t>userDetailsService</t>
-  </si>
-  <si>
-    <t>passwordEncoder</t>
+    <t>expiresIn</t>
+  </si>
+  <si>
+    <t>token</t>
   </si>
   <si>
     <t>refreshToken</t>
   </si>
   <si>
-    <t>expiresIn</t>
-  </si>
-  <si>
-    <t>token</t>
-  </si>
-  <si>
     <t>tokenHead</t>
   </si>
   <si>
+    <t>adminService</t>
+  </si>
+  <si>
     <t>memberService</t>
   </si>
   <si>
@@ -402,27 +450,24 @@
     <t>javax.servlet.http.HttpServletRequest</t>
   </si>
   <si>
-    <t>adminService</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
+    <t>authorities</t>
+  </si>
+  <si>
     <t>password</t>
   </si>
   <si>
-    <t>authorities</t>
+    <t>clientId</t>
+  </si>
+  <si>
+    <t>enabled</t>
   </si>
   <si>
     <t>username</t>
   </si>
   <si>
-    <t>enabled</t>
-  </si>
-  <si>
-    <t>clientId</t>
-  </si>
-  <si>
     <t>keyPair</t>
   </si>
   <si>
@@ -501,67 +546,25 @@
     <t>178</t>
   </si>
   <si>
-    <t>MessageConstant()</t>
-  </si>
-  <si>
     <t>12</t>
   </si>
   <si>
-    <t>AuthController()</t>
-  </si>
-  <si>
-    <t>SwaggerConfig()</t>
-  </si>
-  <si>
-    <t>MallAuthApplication()</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
-    <t>Oauth2ServerConfig(org.springframework.security.crypto.password.PasswordEncoder, com.macro.mall.auth.service.impl.UserServiceImpl, org.springframework.security.authentication.AuthenticationManager, com.macro.mall.auth.component.JwtTokenEnhancer)</t>
-  </si>
-  <si>
-    <t>JwtTokenEnhancer()</t>
-  </si>
-  <si>
-    <t>WebSecurityConfig()</t>
-  </si>
-  <si>
     <t>52</t>
   </si>
   <si>
-    <t>Oauth2TokenDto(java.lang.String, java.lang.String, java.lang.String, int)</t>
-  </si>
-  <si>
-    <t>Oauth2ExceptionHandler()</t>
-  </si>
-  <si>
-    <t>UserServiceImpl()</t>
-  </si>
-  <si>
-    <t>Oauth2TokenDto$Oauth2TokenDtoBuilder()</t>
+    <t>11</t>
   </si>
   <si>
     <t>88</t>
   </si>
   <si>
     <t>17</t>
-  </si>
-  <si>
-    <t>SecurityUser()</t>
-  </si>
-  <si>
-    <t>SecurityUser(com.macro.mall.common.domain.UserDto)</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>KeyPairController()</t>
   </si>
 </sst>
 </file>
@@ -606,7 +609,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D170"/>
+  <dimension ref="A1:D182"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -827,7 +830,7 @@
         <v>26</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>6</v>
@@ -841,13 +844,13 @@
         <v>26</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -855,13 +858,13 @@
         <v>26</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19">
@@ -869,7 +872,7 @@
         <v>26</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>6</v>
@@ -883,13 +886,13 @@
         <v>26</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -897,13 +900,13 @@
         <v>26</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22">
@@ -911,13 +914,13 @@
         <v>26</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23">
@@ -925,13 +928,13 @@
         <v>26</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -939,133 +942,133 @@
         <v>26</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>29</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C26" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>31</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="C27" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="B28" t="s" s="0">
-        <v>8</v>
-      </c>
       <c r="C28" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>10</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C29" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="C31" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C32" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C33" t="s" s="0">
         <v>6</v>
@@ -1076,38 +1079,38 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C34" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C36" t="s" s="0">
         <v>6</v>
@@ -1118,24 +1121,24 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C37" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C38" t="s" s="0">
         <v>6</v>
@@ -1149,7 +1152,7 @@
         <v>34</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="C39" t="s" s="0">
         <v>6</v>
@@ -1169,7 +1172,7 @@
         <v>6</v>
       </c>
       <c r="D40" t="s" s="0">
-        <v>37</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41">
@@ -1177,21 +1180,21 @@
         <v>34</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s" s="0">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C42" t="s" s="0">
         <v>6</v>
@@ -1202,41 +1205,41 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B43" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C43" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D43" t="s" s="0">
         <v>40</v>
-      </c>
-      <c r="C43" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="D43" t="s" s="0">
-        <v>41</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="C44" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D44" t="s" s="0">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="B45" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="B45" t="s" s="0">
-        <v>8</v>
-      </c>
       <c r="C45" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D45" t="s" s="0">
         <v>10</v>
@@ -1244,55 +1247,55 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="C46" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D46" t="s" s="0">
-        <v>10</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="C47" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D47" t="s" s="0">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="C48" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D48" t="s" s="0">
-        <v>44</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s" s="0">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s" s="0">
         <v>10</v>
@@ -1300,49 +1303,49 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C50" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D50" t="s" s="0">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="C51" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D51" t="s" s="0">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C52" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D52" t="s" s="0">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B53" t="s" s="0">
         <v>20</v>
@@ -1356,7 +1359,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B54" t="s" s="0">
         <v>23</v>
@@ -1370,7 +1373,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B55" t="s" s="0">
         <v>25</v>
@@ -1384,27 +1387,27 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C56" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D56" t="s" s="0">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="C57" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D57" t="s" s="0">
         <v>10</v>
@@ -1412,122 +1415,122 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C58" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D58" t="s" s="0">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="C59" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D59" t="s" s="0">
-        <v>47</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C60" t="s" s="0">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s" s="0">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C61" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D61" t="s" s="0">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s" s="0">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s" s="0">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C63" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D63" t="s" s="0">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="C64" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D64" t="s" s="0">
-        <v>10</v>
+        <v>52</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="C65" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D65" t="s" s="0">
-        <v>49</v>
+        <v>17</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C66" t="s" s="0">
         <v>6</v>
@@ -1538,30 +1541,30 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C67" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D67" t="s" s="0">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C68" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D68" t="s" s="0">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69">
@@ -1569,13 +1572,13 @@
         <v>50</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C69" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D69" t="s" s="0">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70">
@@ -1583,13 +1586,13 @@
         <v>50</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="C70" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D70" t="s" s="0">
-        <v>10</v>
+        <v>54</v>
       </c>
     </row>
     <row r="71">
@@ -1597,13 +1600,13 @@
         <v>50</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C71" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D71" t="s" s="0">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72">
@@ -1611,13 +1614,13 @@
         <v>50</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="C72" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D72" t="s" s="0">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73">
@@ -1625,13 +1628,13 @@
         <v>50</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C73" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D73" t="s" s="0">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74">
@@ -1639,38 +1642,38 @@
         <v>50</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="C74" t="s" s="0">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s" s="0">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C75" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D75" t="s" s="0">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s" s="0">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s" s="0">
         <v>10</v>
@@ -1678,122 +1681,122 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="C77" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D77" t="s" s="0">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B78" t="s" s="0">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="C78" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D78" t="s" s="0">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B79" t="s" s="0">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="C79" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D79" t="s" s="0">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C80" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D80" t="s" s="0">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C81" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D81" t="s" s="0">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B82" t="s" s="0">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="C82" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D82" t="s" s="0">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="C83" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D83" t="s" s="0">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="C84" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D84" t="s" s="0">
-        <v>59</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B85" t="s" s="0">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="C85" t="s" s="0">
         <v>6</v>
@@ -1804,24 +1807,24 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="C86" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D86" t="s" s="0">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B87" t="s" s="0">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="C87" t="s" s="0">
         <v>6</v>
@@ -1832,55 +1835,55 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="0">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C88" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D88" t="s" s="0">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="0">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="C89" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D89" t="s" s="0">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="0">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B90" t="s" s="0">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C90" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D90" t="s" s="0">
-        <v>7</v>
+        <v>65</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="0">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B91" t="s" s="0">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C91" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D91" t="s" s="0">
         <v>10</v>
@@ -1888,10 +1891,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="0">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B92" t="s" s="0">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C92" t="s" s="0">
         <v>6</v>
@@ -1902,55 +1905,55 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="0">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B93" t="s" s="0">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C93" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D93" t="s" s="0">
-        <v>64</v>
+        <v>10</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="0">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B94" t="s" s="0">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="C94" t="s" s="0">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s" s="0">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="0">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B95" t="s" s="0">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C95" t="s" s="0">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s" s="0">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="0">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B96" t="s" s="0">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="C96" t="s" s="0">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="D96" t="s" s="0">
         <v>10</v>
@@ -1958,108 +1961,108 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="0">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B97" t="s" s="0">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C97" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D97" t="s" s="0">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="0">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B98" t="s" s="0">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s" s="0">
         <v>9</v>
       </c>
       <c r="D98" t="s" s="0">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="0">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B99" t="s" s="0">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="C99" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D99" t="s" s="0">
-        <v>10</v>
+        <v>72</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="0">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B100" t="s" s="0">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C100" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D100" t="s" s="0">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="0">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B101" t="s" s="0">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C101" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D101" t="s" s="0">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="0">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B102" t="s" s="0">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C102" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D102" t="s" s="0">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="0">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B103" t="s" s="0">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C103" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D103" t="s" s="0">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="0">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B104" t="s" s="0">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C104" t="s" s="0">
         <v>6</v>
@@ -2070,24 +2073,24 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="0">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B105" t="s" s="0">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="C105" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D105" t="s" s="0">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="0">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B106" t="s" s="0">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C106" t="s" s="0">
         <v>6</v>
@@ -2098,10 +2101,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="0">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B107" t="s" s="0">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C107" t="s" s="0">
         <v>6</v>
@@ -2112,21 +2115,21 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="0">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B108" t="s" s="0">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C108" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D108" t="s" s="0">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="0">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B109" t="s" s="0">
         <v>18</v>
@@ -2140,223 +2143,223 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="0">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B110" t="s" s="0">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C110" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D110" t="s" s="0">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="0">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B111" t="s" s="0">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s" s="0">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s" s="0">
-        <v>66</v>
+        <v>10</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="0">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B112" t="s" s="0">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C112" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D112" t="s" s="0">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="0">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B113" t="s" s="0">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C113" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D113" t="s" s="0">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="0">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="B114" t="s" s="0">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="C114" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D114" t="s" s="0">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="0">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="B115" t="s" s="0">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="C115" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D115" t="s" s="0">
-        <v>59</v>
+        <v>10</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="0">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="B116" t="s" s="0">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C116" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D116" t="s" s="0">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="0">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="B117" t="s" s="0">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="C117" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D117" t="s" s="0">
-        <v>59</v>
+        <v>10</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="0">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="B118" t="s" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C118" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D118" t="s" s="0">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="0">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="B119" t="s" s="0">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="C119" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D119" t="s" s="0">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s" s="0">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="B120" t="s" s="0">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C120" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D120" t="s" s="0">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s" s="0">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="B121" t="s" s="0">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C121" t="s" s="0">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s" s="0">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="0">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="B122" t="s" s="0">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C122" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D122" t="s" s="0">
-        <v>24</v>
+        <v>76</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="0">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B123" t="s" s="0">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C123" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D123" t="s" s="0">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s" s="0">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B124" t="s" s="0">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="C124" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D124" t="s" s="0">
-        <v>10</v>
+        <v>65</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s" s="0">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B125" t="s" s="0">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s" s="0">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s" s="0">
         <v>10</v>
@@ -2364,83 +2367,83 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="0">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B126" t="s" s="0">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="C126" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D126" t="s" s="0">
-        <v>10</v>
+        <v>65</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s" s="0">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B127" t="s" s="0">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="C127" t="s" s="0">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="D127" t="s" s="0">
-        <v>59</v>
+        <v>10</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s" s="0">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B128" t="s" s="0">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C128" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D128" t="s" s="0">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s" s="0">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B129" t="s" s="0">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="C129" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D129" t="s" s="0">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s" s="0">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B130" t="s" s="0">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C130" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D130" t="s" s="0">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s" s="0">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B131" t="s" s="0">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C131" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D131" t="s" s="0">
         <v>10</v>
@@ -2448,38 +2451,38 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="0">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B132" t="s" s="0">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C132" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D132" t="s" s="0">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s" s="0">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B133" t="s" s="0">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C133" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D133" t="s" s="0">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s" s="0">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B134" t="s" s="0">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C134" t="s" s="0">
         <v>6</v>
@@ -2490,10 +2493,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="0">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B135" t="s" s="0">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C135" t="s" s="0">
         <v>6</v>
@@ -2504,83 +2507,83 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="0">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B136" t="s" s="0">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C136" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D136" t="s" s="0">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s" s="0">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B137" t="s" s="0">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="C137" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D137" t="s" s="0">
-        <v>19</v>
+        <v>65</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s" s="0">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B138" t="s" s="0">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C138" t="s" s="0">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s" s="0">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s" s="0">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B139" t="s" s="0">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="C139" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D139" t="s" s="0">
-        <v>22</v>
+        <v>65</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s" s="0">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="B140" t="s" s="0">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C140" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D140" t="s" s="0">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s" s="0">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="B141" t="s" s="0">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s" s="0">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s" s="0">
         <v>10</v>
@@ -2588,10 +2591,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="0">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="B142" t="s" s="0">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="C142" t="s" s="0">
         <v>6</v>
@@ -2602,27 +2605,27 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="0">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="B143" t="s" s="0">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C143" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D143" t="s" s="0">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s" s="0">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="B144" t="s" s="0">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C144" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D144" t="s" s="0">
         <v>10</v>
@@ -2630,10 +2633,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="0">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="B145" t="s" s="0">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="C145" t="s" s="0">
         <v>6</v>
@@ -2644,38 +2647,38 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="0">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="B146" t="s" s="0">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="C146" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D146" t="s" s="0">
-        <v>77</v>
+        <v>17</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s" s="0">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="B147" t="s" s="0">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="C147" t="s" s="0">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s" s="0">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s" s="0">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="B148" t="s" s="0">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="C148" t="s" s="0">
         <v>6</v>
@@ -2686,21 +2689,21 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="0">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="B149" t="s" s="0">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="C149" t="s" s="0">
-        <v>81</v>
+        <v>6</v>
       </c>
       <c r="D149" t="s" s="0">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s" s="0">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="B150" t="s" s="0">
         <v>23</v>
@@ -2714,66 +2717,66 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="0">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="B151" t="s" s="0">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="C151" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D151" t="s" s="0">
-        <v>83</v>
+        <v>10</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s" s="0">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B152" t="s" s="0">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C152" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D152" t="s" s="0">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s" s="0">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B153" t="s" s="0">
-        <v>85</v>
+        <v>5</v>
       </c>
       <c r="C153" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D153" t="s" s="0">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s" s="0">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B154" t="s" s="0">
-        <v>86</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s" s="0">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s" s="0">
-        <v>87</v>
+        <v>10</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s" s="0">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B155" t="s" s="0">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C155" t="s" s="0">
         <v>6</v>
@@ -2784,10 +2787,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="0">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B156" t="s" s="0">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="C156" t="s" s="0">
         <v>6</v>
@@ -2798,24 +2801,24 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="0">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B157" t="s" s="0">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="C157" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D157" t="s" s="0">
-        <v>7</v>
+        <v>89</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s" s="0">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B158" t="s" s="0">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C158" t="s" s="0">
         <v>6</v>
@@ -2826,94 +2829,94 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="0">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B159" t="s" s="0">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="C159" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D159" t="s" s="0">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s" s="0">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B160" t="s" s="0">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C160" t="s" s="0">
-        <v>6</v>
+        <v>93</v>
       </c>
       <c r="D160" t="s" s="0">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s" s="0">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B161" t="s" s="0">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C161" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D161" t="s" s="0">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s" s="0">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B162" t="s" s="0">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C162" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D162" t="s" s="0">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s" s="0">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B163" t="s" s="0">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="C163" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D163" t="s" s="0">
-        <v>10</v>
+        <v>96</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s" s="0">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B164" t="s" s="0">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C164" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D164" t="s" s="0">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s" s="0">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B165" t="s" s="0">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C165" t="s" s="0">
         <v>6</v>
@@ -2924,24 +2927,24 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="0">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B166" t="s" s="0">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="C166" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D166" t="s" s="0">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s" s="0">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B167" t="s" s="0">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="C167" t="s" s="0">
         <v>6</v>
@@ -2952,10 +2955,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="0">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B168" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C168" t="s" s="0">
         <v>6</v>
@@ -2966,29 +2969,197 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="0">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B169" t="s" s="0">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="C169" t="s" s="0">
         <v>9</v>
       </c>
       <c r="D169" t="s" s="0">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s" s="0">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B170" t="s" s="0">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C170" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D170" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B171" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C171" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D171" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B172" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="C172" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D172" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B173" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="C173" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D173" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B174" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C174" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D174" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B175" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C175" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D175" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B176" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="C176" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D176" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B177" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="C177" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D177" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B178" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C178" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D178" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B179" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C179" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D179" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B180" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C180" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D180" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B181" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="C181" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D181" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B182" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="C182" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D182" t="s" s="0">
         <v>7</v>
       </c>
     </row>
@@ -3010,7 +3181,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>148</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2">
@@ -3018,7 +3189,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>140</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3">
@@ -3026,111 +3197,111 @@
         <v>26</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>149</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>150</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>151</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>152</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>153</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>154</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>151</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>155</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>152</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>156</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>157</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>140</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>151</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -3154,7 +3325,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>148</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2">
@@ -3165,7 +3336,7 @@
         <v>21</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>140</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3">
@@ -3173,769 +3344,769 @@
         <v>26</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>159</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>140</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>140</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>152</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>162</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>140</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>163</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>140</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>152</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>154</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>152</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>164</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>165</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B16" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="C16" t="s" s="0">
         <v>166</v>
-      </c>
-      <c r="C16" t="s" s="0">
-        <v>151</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>167</v>
+        <v>47</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>140</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>152</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>168</v>
+        <v>53</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>140</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>152</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>152</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>152</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>152</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>152</v>
+        <v>167</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>152</v>
+        <v>167</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>152</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B29" t="s" s="0">
         <v>60</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>152</v>
+        <v>167</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>152</v>
+        <v>167</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>152</v>
+        <v>167</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>152</v>
+        <v>177</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>160</v>
+        <v>167</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>170</v>
+        <v>23</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>151</v>
+        <v>174</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>171</v>
+        <v>71</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>140</v>
+        <v>167</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B39" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="C39" t="s" s="0">
         <v>172</v>
-      </c>
-      <c r="C39" t="s" s="0">
-        <v>140</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>165</v>
+        <v>154</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>165</v>
+        <v>176</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>165</v>
+        <v>176</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>165</v>
+        <v>176</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="C44" t="s" s="0">
-        <v>152</v>
+        <v>176</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="C45" t="s" s="0">
-        <v>152</v>
+        <v>167</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>173</v>
+        <v>12</v>
       </c>
       <c r="C46" t="s" s="0">
-        <v>139</v>
+        <v>167</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="B47" t="s" s="0">
         <v>21</v>
       </c>
       <c r="C47" t="s" s="0">
-        <v>140</v>
+        <v>155</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="C48" t="s" s="0">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C49" t="s" s="0">
-        <v>152</v>
+        <v>178</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="C50" t="s" s="0">
-        <v>152</v>
+        <v>167</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C51" t="s" s="0">
-        <v>152</v>
+        <v>167</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="C52" t="s" s="0">
-        <v>152</v>
+        <v>167</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="C53" t="s" s="0">
-        <v>152</v>
+        <v>167</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="C54" t="s" s="0">
-        <v>152</v>
+        <v>167</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="C55" t="s" s="0">
-        <v>152</v>
+        <v>167</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="C56" t="s" s="0">
-        <v>152</v>
+        <v>167</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="C57" t="s" s="0">
-        <v>152</v>
+        <v>167</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B58" t="s" s="0">
         <v>88</v>
       </c>
       <c r="C58" t="s" s="0">
-        <v>152</v>
+        <v>167</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C59" t="s" s="0">
-        <v>152</v>
+        <v>167</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="C60" t="s" s="0">
-        <v>152</v>
+        <v>167</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C61" t="s" s="0">
-        <v>152</v>
+        <v>167</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C62" t="s" s="0">
-        <v>152</v>
+        <v>167</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="C63" t="s" s="0">
-        <v>152</v>
+        <v>167</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>5</v>
+        <v>106</v>
       </c>
       <c r="C64" t="s" s="0">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="C65" t="s" s="0">
-        <v>152</v>
+        <v>167</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C66" t="s" s="0">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="C67" t="s" s="0">
-        <v>152</v>
+        <v>167</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="C68" t="s" s="0">
-        <v>140</v>
+        <v>180</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>176</v>
+        <v>12</v>
       </c>
       <c r="C69" t="s" s="0">
-        <v>139</v>
+        <v>167</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>177</v>
+        <v>92</v>
       </c>
       <c r="C70" t="s" s="0">
-        <v>178</v>
+        <v>155</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="C71" t="s" s="0">
-        <v>164</v>
+        <v>155</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>179</v>
+        <v>115</v>
       </c>
       <c r="C72" t="s" s="0">
-        <v>140</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -3945,7 +4116,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3953,13 +4124,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="D1" t="s" s="0">
         <v>3</v>
@@ -3967,30 +4138,58 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="C2" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>102</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -4011,13 +4210,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>105</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2">
@@ -4025,7 +4224,7 @@
         <v>26</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="C2" t="s" s="0">
         <v>6</v>
@@ -4039,7 +4238,7 @@
         <v>26</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>6</v>
@@ -4053,7 +4252,7 @@
         <v>26</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>6</v>
@@ -4067,7 +4266,7 @@
         <v>26</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>6</v>
@@ -4081,7 +4280,7 @@
         <v>26</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>6</v>
@@ -4095,7 +4294,7 @@
         <v>26</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>6</v>
@@ -4109,7 +4308,7 @@
         <v>26</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="C8" t="s" s="0">
         <v>6</v>
@@ -4120,111 +4319,111 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>114</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>47</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D16" t="s" s="0">
         <v>13</v>
@@ -4232,13 +4431,13 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D17" t="s" s="0">
         <v>13</v>
@@ -4246,69 +4445,69 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>4</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>125</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>72</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D22" t="s" s="0">
         <v>13</v>
@@ -4316,13 +4515,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D23" t="s" s="0">
         <v>13</v>
@@ -4330,69 +4529,69 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>83</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>13</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>87</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D28" t="s" s="0">
         <v>13</v>
@@ -4400,27 +4599,27 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>77</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D30" t="s" s="0">
         <v>13</v>
@@ -4428,16 +4627,16 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -4455,109 +4654,109 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>138</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>5</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>139</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s" s="0">
         <v>23</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>140</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B4" t="s" s="0">
         <v>23</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>140</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B5" t="s" s="0">
         <v>12</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>140</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B6" t="s" s="0">
         <v>5</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>140</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B7" t="s" s="0">
         <v>21</v>
@@ -4569,636 +4768,636 @@
         <v>21</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>140</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B8" t="s" s="0">
         <v>12</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>140</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B9" t="s" s="0">
         <v>23</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>140</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B10" t="s" s="0">
         <v>23</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>140</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B11" t="s" s="0">
         <v>5</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>139</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B12" t="s" s="0">
         <v>5</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E12" t="s" s="0">
-        <v>139</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B13" t="s" s="0">
         <v>23</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="E13" t="s" s="0">
-        <v>140</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B14" t="s" s="0">
         <v>12</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E14" t="s" s="0">
-        <v>140</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B15" t="s" s="0">
         <v>5</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="E15" t="s" s="0">
-        <v>139</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="E16" t="s" s="0">
-        <v>140</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B17" t="s" s="0">
         <v>5</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E17" t="s" s="0">
-        <v>140</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B18" t="s" s="0">
         <v>23</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="E18" t="s" s="0">
-        <v>140</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B19" t="s" s="0">
         <v>5</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E19" t="s" s="0">
-        <v>139</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B20" t="s" s="0">
         <v>23</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E20" t="s" s="0">
-        <v>140</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B21" t="s" s="0">
         <v>21</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="E21" t="s" s="0">
-        <v>140</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B22" t="s" s="0">
         <v>5</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E22" t="s" s="0">
-        <v>139</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B23" t="s" s="0">
         <v>12</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="E23" t="s" s="0">
-        <v>140</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B24" t="s" s="0">
         <v>12</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E24" t="s" s="0">
-        <v>140</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="E25" t="s" s="0">
-        <v>140</v>
+        <v>155</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B26" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="C26" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="C26" t="s" s="0">
-        <v>27</v>
-      </c>
       <c r="D26" t="s" s="0">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="E26" t="s" s="0">
-        <v>140</v>
+        <v>155</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B27" t="s" s="0">
         <v>12</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="E27" t="s" s="0">
-        <v>140</v>
+        <v>155</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B28" t="s" s="0">
         <v>5</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="E28" t="s" s="0">
-        <v>139</v>
+        <v>154</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B29" t="s" s="0">
         <v>12</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E29" t="s" s="0">
-        <v>140</v>
+        <v>155</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B30" t="s" s="0">
         <v>21</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="E30" t="s" s="0">
-        <v>140</v>
+        <v>155</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B31" t="s" s="0">
         <v>5</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="E31" t="s" s="0">
-        <v>139</v>
+        <v>154</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B32" t="s" s="0">
         <v>12</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="E32" t="s" s="0">
-        <v>140</v>
+        <v>155</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B33" t="s" s="0">
         <v>12</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E33" t="s" s="0">
-        <v>140</v>
+        <v>155</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B34" t="s" s="0">
         <v>21</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="D34" t="s" s="0">
         <v>21</v>
       </c>
       <c r="E34" t="s" s="0">
-        <v>140</v>
+        <v>155</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B35" t="s" s="0">
         <v>21</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="E35" t="s" s="0">
-        <v>140</v>
+        <v>155</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B36" t="s" s="0">
         <v>12</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="E36" t="s" s="0">
-        <v>140</v>
+        <v>155</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B37" t="s" s="0">
         <v>5</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="E37" t="s" s="0">
-        <v>139</v>
+        <v>154</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E38" t="s" s="0">
-        <v>140</v>
+        <v>155</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B39" t="s" s="0">
         <v>5</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E39" t="s" s="0">
-        <v>139</v>
+        <v>154</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B40" t="s" s="0">
         <v>23</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="D40" t="s" s="0">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="E40" t="s" s="0">
-        <v>140</v>
+        <v>155</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B41" t="s" s="0">
         <v>21</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="D41" t="s" s="0">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="E41" t="s" s="0">
-        <v>140</v>
+        <v>155</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B42" t="s" s="0">
         <v>23</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D42" t="s" s="0">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E42" t="s" s="0">
-        <v>140</v>
+        <v>155</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D43" t="s" s="0">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E43" t="s" s="0">
-        <v>139</v>
+        <v>154</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B44" t="s" s="0">
         <v>23</v>
       </c>
       <c r="C44" t="s" s="0">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="D44" t="s" s="0">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="E44" t="s" s="0">
-        <v>140</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -5216,19 +5415,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>138</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -5246,121 +5445,121 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>138</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>140</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>140</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>140</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>140</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>140</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>140</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -5378,19 +5577,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>138</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -5408,19 +5607,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>138</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -5438,19 +5637,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>138</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/data/mall-swarm/mall-auth_structure.xlsx
+++ b/data/mall-swarm/mall-auth_structure.xlsx
@@ -390,82 +390,82 @@
     <t>LOGIN_SUCCESS</t>
   </si>
   <si>
+    <t>PERMISSION_DENIED</t>
+  </si>
+  <si>
+    <t>ACCOUNT_DISABLED</t>
+  </si>
+  <si>
+    <t>USERNAME_PASSWORD_ERROR</t>
+  </si>
+  <si>
+    <t>ACCOUNT_LOCKED</t>
+  </si>
+  <si>
     <t>CREDENTIALS_EXPIRED</t>
   </si>
   <si>
     <t>ACCOUNT_EXPIRED</t>
   </si>
   <si>
-    <t>PERMISSION_DENIED</t>
-  </si>
-  <si>
-    <t>USERNAME_PASSWORD_ERROR</t>
-  </si>
-  <si>
-    <t>ACCOUNT_DISABLED</t>
-  </si>
-  <si>
-    <t>ACCOUNT_LOCKED</t>
-  </si>
-  <si>
     <t>tokenEndpoint</t>
   </si>
   <si>
     <t>org.springframework.security.oauth2.provider.endpoint.TokenEndpoint</t>
   </si>
   <si>
+    <t>jwtTokenEnhancer</t>
+  </si>
+  <si>
+    <t>authenticationManager</t>
+  </si>
+  <si>
+    <t>passwordEncoder</t>
+  </si>
+  <si>
     <t>userDetailsService</t>
   </si>
   <si>
-    <t>authenticationManager</t>
-  </si>
-  <si>
-    <t>passwordEncoder</t>
-  </si>
-  <si>
-    <t>jwtTokenEnhancer</t>
+    <t>tokenHead</t>
+  </si>
+  <si>
+    <t>token</t>
+  </si>
+  <si>
+    <t>refreshToken</t>
   </si>
   <si>
     <t>expiresIn</t>
   </si>
   <si>
-    <t>token</t>
-  </si>
-  <si>
-    <t>refreshToken</t>
-  </si>
-  <si>
-    <t>tokenHead</t>
-  </si>
-  <si>
     <t>adminService</t>
   </si>
   <si>
+    <t>request</t>
+  </si>
+  <si>
+    <t>javax.servlet.http.HttpServletRequest</t>
+  </si>
+  <si>
     <t>memberService</t>
   </si>
   <si>
-    <t>request</t>
-  </si>
-  <si>
-    <t>javax.servlet.http.HttpServletRequest</t>
+    <t>authorities</t>
   </si>
   <si>
     <t>id</t>
   </si>
   <si>
-    <t>authorities</t>
+    <t>clientId</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>enabled</t>
   </si>
   <si>
     <t>password</t>
-  </si>
-  <si>
-    <t>clientId</t>
-  </si>
-  <si>
-    <t>enabled</t>
-  </si>
-  <si>
-    <t>username</t>
   </si>
   <si>
     <t>keyPair</t>
@@ -4342,7 +4342,7 @@
         <v>93</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>74</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11">
@@ -4384,7 +4384,7 @@
         <v>93</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>46</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14">
@@ -4398,7 +4398,7 @@
         <v>93</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15">
@@ -4440,7 +4440,7 @@
         <v>93</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18">
@@ -4468,7 +4468,7 @@
         <v>93</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>4</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20">
@@ -4476,13 +4476,13 @@
         <v>74</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>93</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>141</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
@@ -4490,7 +4490,7 @@
         <v>65</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>93</v>
@@ -4504,13 +4504,13 @@
         <v>65</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>93</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23">
@@ -4518,7 +4518,7 @@
         <v>65</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>93</v>
@@ -4538,7 +4538,7 @@
         <v>93</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25">
@@ -4552,7 +4552,7 @@
         <v>93</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26">
@@ -4566,7 +4566,7 @@
         <v>93</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27">

--- a/data/mall-swarm/mall-auth_structure.xlsx
+++ b/data/mall-swarm/mall-auth_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="180">
   <si>
     <t>Class Name</t>
   </si>
@@ -360,12 +360,12 @@
     <t>com.macro.mall.auth.controller.AuthController</t>
   </si>
   <si>
+    <t>AuthController()</t>
+  </si>
+  <si>
     <t>postAccessToken(javax.servlet.http.HttpServletRequest, java.lang.String, java.lang.String, java.lang.String, java.lang.String, java.lang.String, java.lang.String)</t>
   </si>
   <si>
-    <t>AuthController()</t>
-  </si>
-  <si>
     <t>com.macro.mall.auth.controller.KeyPairController</t>
   </si>
   <si>
@@ -556,9 +556,6 @@
   </si>
   <si>
     <t>52</t>
-  </si>
-  <si>
-    <t>11</t>
   </si>
   <si>
     <t>88</t>
@@ -3311,7 +3308,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C72"/>
+  <dimension ref="A1:C58"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3341,54 +3338,54 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>27</v>
+        <v>113</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>155</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>111</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>113</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>155</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>111</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>112</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>155</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>167</v>
@@ -3396,35 +3393,35 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>155</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>167</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11">
@@ -3432,18 +3429,18 @@
         <v>37</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>167</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>169</v>
@@ -3451,10 +3448,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>167</v>
@@ -3462,76 +3459,76 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>176</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>155</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>155</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>167</v>
@@ -3539,10 +3536,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>167</v>
@@ -3553,10 +3550,10 @@
         <v>56</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23">
@@ -3564,7 +3561,7 @@
         <v>56</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>167</v>
@@ -3575,7 +3572,7 @@
         <v>56</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>167</v>
@@ -3586,10 +3583,10 @@
         <v>56</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>167</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26">
@@ -3597,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C26" t="s" s="0">
         <v>167</v>
@@ -3608,18 +3605,18 @@
         <v>56</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>167</v>
+        <v>174</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="C28" t="s" s="0">
         <v>167</v>
@@ -3627,65 +3624,65 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>167</v>
+        <v>176</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>167</v>
+        <v>176</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>167</v>
+        <v>176</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="C34" t="s" s="0">
         <v>167</v>
@@ -3693,21 +3690,21 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="C36" t="s" s="0">
         <v>155</v>
@@ -3715,10 +3712,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="C37" t="s" s="0">
         <v>167</v>
@@ -3726,87 +3723,87 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>155</v>
+        <v>167</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>154</v>
+        <v>167</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>176</v>
+        <v>167</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>176</v>
+        <v>167</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>176</v>
+        <v>167</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="C44" t="s" s="0">
-        <v>176</v>
+        <v>167</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C45" t="s" s="0">
         <v>167</v>
@@ -3814,10 +3811,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="C46" t="s" s="0">
         <v>167</v>
@@ -3825,13 +3822,13 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="C47" t="s" s="0">
-        <v>155</v>
+        <v>167</v>
       </c>
     </row>
     <row r="48">
@@ -3839,10 +3836,10 @@
         <v>84</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C48" t="s" s="0">
-        <v>154</v>
+        <v>167</v>
       </c>
     </row>
     <row r="49">
@@ -3850,10 +3847,10 @@
         <v>84</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C49" t="s" s="0">
-        <v>178</v>
+        <v>167</v>
       </c>
     </row>
     <row r="50">
@@ -3861,7 +3858,7 @@
         <v>84</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C50" t="s" s="0">
         <v>167</v>
@@ -3872,7 +3869,7 @@
         <v>84</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="C51" t="s" s="0">
         <v>167</v>
@@ -3883,7 +3880,7 @@
         <v>84</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="C52" t="s" s="0">
         <v>167</v>
@@ -3894,10 +3891,10 @@
         <v>84</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>103</v>
+        <v>5</v>
       </c>
       <c r="C53" t="s" s="0">
-        <v>167</v>
+        <v>178</v>
       </c>
     </row>
     <row r="54">
@@ -3905,7 +3902,7 @@
         <v>84</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="C54" t="s" s="0">
         <v>167</v>
@@ -3916,10 +3913,10 @@
         <v>84</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>107</v>
+        <v>23</v>
       </c>
       <c r="C55" t="s" s="0">
-        <v>167</v>
+        <v>179</v>
       </c>
     </row>
     <row r="56">
@@ -3927,7 +3924,7 @@
         <v>84</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="C56" t="s" s="0">
         <v>167</v>
@@ -3938,174 +3935,20 @@
         <v>84</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C57" t="s" s="0">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="C58" t="s" s="0">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s" s="0">
-        <v>84</v>
-      </c>
-      <c r="B59" t="s" s="0">
-        <v>90</v>
-      </c>
-      <c r="C59" t="s" s="0">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s" s="0">
-        <v>84</v>
-      </c>
-      <c r="B60" t="s" s="0">
-        <v>101</v>
-      </c>
-      <c r="C60" t="s" s="0">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s" s="0">
-        <v>84</v>
-      </c>
-      <c r="B61" t="s" s="0">
-        <v>91</v>
-      </c>
-      <c r="C61" t="s" s="0">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s" s="0">
-        <v>84</v>
-      </c>
-      <c r="B62" t="s" s="0">
-        <v>85</v>
-      </c>
-      <c r="C62" t="s" s="0">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s" s="0">
-        <v>84</v>
-      </c>
-      <c r="B63" t="s" s="0">
-        <v>98</v>
-      </c>
-      <c r="C63" t="s" s="0">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s" s="0">
-        <v>84</v>
-      </c>
-      <c r="B64" t="s" s="0">
-        <v>106</v>
-      </c>
-      <c r="C64" t="s" s="0">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s" s="0">
-        <v>84</v>
-      </c>
-      <c r="B65" t="s" s="0">
-        <v>87</v>
-      </c>
-      <c r="C65" t="s" s="0">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s" s="0">
-        <v>84</v>
-      </c>
-      <c r="B66" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C66" t="s" s="0">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s" s="0">
-        <v>84</v>
-      </c>
-      <c r="B67" t="s" s="0">
-        <v>67</v>
-      </c>
-      <c r="C67" t="s" s="0">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s" s="0">
-        <v>84</v>
-      </c>
-      <c r="B68" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="C68" t="s" s="0">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s" s="0">
-        <v>84</v>
-      </c>
-      <c r="B69" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="C69" t="s" s="0">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s" s="0">
-        <v>84</v>
-      </c>
-      <c r="B70" t="s" s="0">
-        <v>92</v>
-      </c>
-      <c r="C70" t="s" s="0">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s" s="0">
-        <v>114</v>
-      </c>
-      <c r="B71" t="s" s="0">
-        <v>117</v>
-      </c>
-      <c r="C71" t="s" s="0">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s" s="0">
-        <v>114</v>
-      </c>
-      <c r="B72" t="s" s="0">
-        <v>115</v>
-      </c>
-      <c r="C72" t="s" s="0">
         <v>175</v>
       </c>
     </row>
@@ -4116,7 +3959,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4141,13 +3984,13 @@
         <v>111</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>112</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>72</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -4155,40 +3998,292 @@
         <v>111</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>115</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>116</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
         <v>114</v>
       </c>
-      <c r="B5" t="s" s="0">
+      <c r="B13" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s" s="0">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D22" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="B23" t="s" s="0">
         <v>117</v>
       </c>
-      <c r="C5" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s" s="0">
+      <c r="C23" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D23" t="s" s="0">
         <v>10</v>
       </c>
     </row>
@@ -5465,7 +5560,7 @@
         <v>111</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C2" t="s" s="0">
         <v>56</v>
@@ -5482,7 +5577,7 @@
         <v>111</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>65</v>
@@ -5499,7 +5594,7 @@
         <v>111</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>65</v>
@@ -5516,7 +5611,7 @@
         <v>111</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>65</v>
@@ -5533,7 +5628,7 @@
         <v>111</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>65</v>
@@ -5550,7 +5645,7 @@
         <v>111</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>65</v>

--- a/data/mall-swarm/mall-auth_structure.xlsx
+++ b/data/mall-swarm/mall-auth_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="181">
   <si>
     <t>Class Name</t>
   </si>
@@ -562,6 +562,9 @@
   </si>
   <si>
     <t>17</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
 </sst>
 </file>
@@ -3938,7 +3941,7 @@
         <v>92</v>
       </c>
       <c r="C57" t="s" s="0">
-        <v>155</v>
+        <v>180</v>
       </c>
     </row>
     <row r="58">

--- a/data/mall-swarm/mall-auth_structure.xlsx
+++ b/data/mall-swarm/mall-auth_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="181">
   <si>
     <t>Class Name</t>
   </si>
@@ -387,85 +387,85 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>ACCOUNT_EXPIRED</t>
+  </si>
+  <si>
+    <t>CREDENTIALS_EXPIRED</t>
+  </si>
+  <si>
+    <t>USERNAME_PASSWORD_ERROR</t>
+  </si>
+  <si>
+    <t>PERMISSION_DENIED</t>
+  </si>
+  <si>
+    <t>ACCOUNT_DISABLED</t>
+  </si>
+  <si>
+    <t>ACCOUNT_LOCKED</t>
+  </si>
+  <si>
     <t>LOGIN_SUCCESS</t>
   </si>
   <si>
-    <t>PERMISSION_DENIED</t>
-  </si>
-  <si>
-    <t>ACCOUNT_DISABLED</t>
-  </si>
-  <si>
-    <t>USERNAME_PASSWORD_ERROR</t>
-  </si>
-  <si>
-    <t>ACCOUNT_LOCKED</t>
-  </si>
-  <si>
-    <t>CREDENTIALS_EXPIRED</t>
-  </si>
-  <si>
-    <t>ACCOUNT_EXPIRED</t>
-  </si>
-  <si>
     <t>tokenEndpoint</t>
   </si>
   <si>
     <t>org.springframework.security.oauth2.provider.endpoint.TokenEndpoint</t>
   </si>
   <si>
+    <t>passwordEncoder</t>
+  </si>
+  <si>
+    <t>authenticationManager</t>
+  </si>
+  <si>
+    <t>userDetailsService</t>
+  </si>
+  <si>
     <t>jwtTokenEnhancer</t>
   </si>
   <si>
-    <t>authenticationManager</t>
-  </si>
-  <si>
-    <t>passwordEncoder</t>
-  </si>
-  <si>
-    <t>userDetailsService</t>
+    <t>refreshToken</t>
   </si>
   <si>
     <t>tokenHead</t>
   </si>
   <si>
+    <t>expiresIn</t>
+  </si>
+  <si>
     <t>token</t>
   </si>
   <si>
-    <t>refreshToken</t>
-  </si>
-  <si>
-    <t>expiresIn</t>
+    <t>memberService</t>
+  </si>
+  <si>
+    <t>request</t>
+  </si>
+  <si>
+    <t>javax.servlet.http.HttpServletRequest</t>
   </si>
   <si>
     <t>adminService</t>
   </si>
   <si>
-    <t>request</t>
-  </si>
-  <si>
-    <t>javax.servlet.http.HttpServletRequest</t>
-  </si>
-  <si>
-    <t>memberService</t>
+    <t>id</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>enabled</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>clientId</t>
   </si>
   <si>
     <t>authorities</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>clientId</t>
-  </si>
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>enabled</t>
-  </si>
-  <si>
-    <t>password</t>
   </si>
   <si>
     <t>keyPair</t>
@@ -3311,7 +3311,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C58"/>
+  <dimension ref="A1:C59"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3440,24 +3440,24 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14">
@@ -3465,7 +3465,7 @@
         <v>50</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>167</v>
@@ -3473,10 +3473,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>167</v>
@@ -3487,7 +3487,7 @@
         <v>56</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>167</v>
@@ -3498,7 +3498,7 @@
         <v>56</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>167</v>
@@ -3509,7 +3509,7 @@
         <v>56</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>167</v>
@@ -3520,7 +3520,7 @@
         <v>56</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>167</v>
@@ -3531,7 +3531,7 @@
         <v>56</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>167</v>
@@ -3542,7 +3542,7 @@
         <v>56</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>167</v>
@@ -3553,7 +3553,7 @@
         <v>56</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>167</v>
@@ -3564,7 +3564,7 @@
         <v>56</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>167</v>
@@ -3575,7 +3575,7 @@
         <v>56</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>167</v>
@@ -3586,10 +3586,10 @@
         <v>56</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26">
@@ -3597,10 +3597,10 @@
         <v>56</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>67</v>
+        <v>5</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>167</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27">
@@ -3608,43 +3608,43 @@
         <v>56</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>167</v>
+        <v>174</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="31">
@@ -3652,7 +3652,7 @@
         <v>65</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C31" t="s" s="0">
         <v>176</v>
@@ -3663,7 +3663,7 @@
         <v>65</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C32" t="s" s="0">
         <v>176</v>
@@ -3674,7 +3674,7 @@
         <v>65</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C33" t="s" s="0">
         <v>176</v>
@@ -3685,10 +3685,10 @@
         <v>65</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>167</v>
+        <v>176</v>
       </c>
     </row>
     <row r="35">
@@ -3696,7 +3696,7 @@
         <v>65</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="C35" t="s" s="0">
         <v>167</v>
@@ -3704,24 +3704,24 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>155</v>
+        <v>167</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>99</v>
+        <v>21</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="38">
@@ -3729,7 +3729,7 @@
         <v>84</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C38" t="s" s="0">
         <v>167</v>
@@ -3740,7 +3740,7 @@
         <v>84</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C39" t="s" s="0">
         <v>167</v>
@@ -3751,7 +3751,7 @@
         <v>84</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C40" t="s" s="0">
         <v>167</v>
@@ -3762,7 +3762,7 @@
         <v>84</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C41" t="s" s="0">
         <v>167</v>
@@ -3773,7 +3773,7 @@
         <v>84</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C42" t="s" s="0">
         <v>167</v>
@@ -3784,7 +3784,7 @@
         <v>84</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C43" t="s" s="0">
         <v>167</v>
@@ -3795,7 +3795,7 @@
         <v>84</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="C44" t="s" s="0">
         <v>167</v>
@@ -3806,7 +3806,7 @@
         <v>84</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C45" t="s" s="0">
         <v>167</v>
@@ -3817,7 +3817,7 @@
         <v>84</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C46" t="s" s="0">
         <v>167</v>
@@ -3828,7 +3828,7 @@
         <v>84</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C47" t="s" s="0">
         <v>167</v>
@@ -3839,7 +3839,7 @@
         <v>84</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C48" t="s" s="0">
         <v>167</v>
@@ -3850,7 +3850,7 @@
         <v>84</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C49" t="s" s="0">
         <v>167</v>
@@ -3861,7 +3861,7 @@
         <v>84</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="C50" t="s" s="0">
         <v>167</v>
@@ -3872,7 +3872,7 @@
         <v>84</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C51" t="s" s="0">
         <v>167</v>
@@ -3883,7 +3883,7 @@
         <v>84</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="C52" t="s" s="0">
         <v>167</v>
@@ -3894,10 +3894,10 @@
         <v>84</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>5</v>
+        <v>87</v>
       </c>
       <c r="C53" t="s" s="0">
-        <v>178</v>
+        <v>167</v>
       </c>
     </row>
     <row r="54">
@@ -3905,10 +3905,10 @@
         <v>84</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>67</v>
+        <v>5</v>
       </c>
       <c r="C54" t="s" s="0">
-        <v>167</v>
+        <v>178</v>
       </c>
     </row>
     <row r="55">
@@ -3916,10 +3916,10 @@
         <v>84</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="C55" t="s" s="0">
-        <v>179</v>
+        <v>167</v>
       </c>
     </row>
     <row r="56">
@@ -3927,10 +3927,10 @@
         <v>84</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C56" t="s" s="0">
-        <v>167</v>
+        <v>179</v>
       </c>
     </row>
     <row r="57">
@@ -3938,20 +3938,31 @@
         <v>84</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="C57" t="s" s="0">
-        <v>180</v>
+        <v>167</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B58" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="C58" t="s" s="0">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="0">
         <v>114</v>
       </c>
-      <c r="B58" t="s" s="0">
+      <c r="B59" t="s" s="0">
         <v>115</v>
       </c>
-      <c r="C58" t="s" s="0">
+      <c r="C59" t="s" s="0">
         <v>175</v>
       </c>
     </row>
@@ -4440,7 +4451,7 @@
         <v>93</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11">
@@ -4468,7 +4479,7 @@
         <v>93</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13">
@@ -4482,7 +4493,7 @@
         <v>93</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>74</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14">
@@ -4524,7 +4535,7 @@
         <v>93</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17">
@@ -4538,7 +4549,7 @@
         <v>93</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18">
@@ -4552,7 +4563,7 @@
         <v>93</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>83</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -4580,7 +4591,7 @@
         <v>93</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>4</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21">
@@ -4602,13 +4613,13 @@
         <v>65</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>93</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23">
@@ -4622,7 +4633,7 @@
         <v>93</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24">
@@ -4630,7 +4641,7 @@
         <v>65</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>93</v>
@@ -4650,7 +4661,7 @@
         <v>93</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26">
@@ -4664,7 +4675,7 @@
         <v>93</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>96</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27">
@@ -4678,7 +4689,7 @@
         <v>93</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>13</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28">
@@ -4706,7 +4717,7 @@
         <v>93</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>89</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30">
@@ -4720,7 +4731,7 @@
         <v>93</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>13</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31">

--- a/data/mall-swarm/mall-auth_structure.xlsx
+++ b/data/mall-swarm/mall-auth_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="181">
   <si>
     <t>Class Name</t>
   </si>
@@ -387,27 +387,27 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>USERNAME_PASSWORD_ERROR</t>
+  </si>
+  <si>
+    <t>CREDENTIALS_EXPIRED</t>
+  </si>
+  <si>
+    <t>LOGIN_SUCCESS</t>
+  </si>
+  <si>
+    <t>ACCOUNT_DISABLED</t>
+  </si>
+  <si>
     <t>ACCOUNT_EXPIRED</t>
   </si>
   <si>
-    <t>CREDENTIALS_EXPIRED</t>
-  </si>
-  <si>
-    <t>USERNAME_PASSWORD_ERROR</t>
-  </si>
-  <si>
     <t>PERMISSION_DENIED</t>
   </si>
   <si>
-    <t>ACCOUNT_DISABLED</t>
-  </si>
-  <si>
     <t>ACCOUNT_LOCKED</t>
   </si>
   <si>
-    <t>LOGIN_SUCCESS</t>
-  </si>
-  <si>
     <t>tokenEndpoint</t>
   </si>
   <si>
@@ -417,27 +417,27 @@
     <t>passwordEncoder</t>
   </si>
   <si>
+    <t>userDetailsService</t>
+  </si>
+  <si>
     <t>authenticationManager</t>
   </si>
   <si>
-    <t>userDetailsService</t>
-  </si>
-  <si>
     <t>jwtTokenEnhancer</t>
   </si>
   <si>
     <t>refreshToken</t>
   </si>
   <si>
+    <t>token</t>
+  </si>
+  <si>
+    <t>expiresIn</t>
+  </si>
+  <si>
     <t>tokenHead</t>
   </si>
   <si>
-    <t>expiresIn</t>
-  </si>
-  <si>
-    <t>token</t>
-  </si>
-  <si>
     <t>memberService</t>
   </si>
   <si>
@@ -450,22 +450,22 @@
     <t>adminService</t>
   </si>
   <si>
+    <t>enabled</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>authorities</t>
+  </si>
+  <si>
+    <t>clientId</t>
+  </si>
+  <si>
     <t>id</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>enabled</t>
-  </si>
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>clientId</t>
-  </si>
-  <si>
-    <t>authorities</t>
   </si>
   <si>
     <t>keyPair</t>
@@ -3311,7 +3311,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C59"/>
+  <dimension ref="A1:C58"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3440,24 +3440,24 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14">
@@ -3465,7 +3465,7 @@
         <v>50</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>167</v>
@@ -3473,10 +3473,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>167</v>
@@ -3487,7 +3487,7 @@
         <v>56</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>167</v>
@@ -3498,7 +3498,7 @@
         <v>56</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>167</v>
@@ -3509,7 +3509,7 @@
         <v>56</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>167</v>
@@ -3520,7 +3520,7 @@
         <v>56</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>167</v>
@@ -3531,7 +3531,7 @@
         <v>56</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>167</v>
@@ -3542,7 +3542,7 @@
         <v>56</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>167</v>
@@ -3553,7 +3553,7 @@
         <v>56</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>167</v>
@@ -3564,7 +3564,7 @@
         <v>56</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>167</v>
@@ -3575,7 +3575,7 @@
         <v>56</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>167</v>
@@ -3586,10 +3586,10 @@
         <v>56</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>167</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26">
@@ -3597,10 +3597,10 @@
         <v>56</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="27">
@@ -3608,43 +3608,43 @@
         <v>56</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>167</v>
+        <v>174</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="31">
@@ -3652,7 +3652,7 @@
         <v>65</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C31" t="s" s="0">
         <v>176</v>
@@ -3663,7 +3663,7 @@
         <v>65</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C32" t="s" s="0">
         <v>176</v>
@@ -3674,7 +3674,7 @@
         <v>65</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C33" t="s" s="0">
         <v>176</v>
@@ -3685,10 +3685,10 @@
         <v>65</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>176</v>
+        <v>167</v>
       </c>
     </row>
     <row r="35">
@@ -3696,7 +3696,7 @@
         <v>65</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="C35" t="s" s="0">
         <v>167</v>
@@ -3704,24 +3704,24 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>155</v>
+        <v>167</v>
       </c>
     </row>
     <row r="38">
@@ -3729,7 +3729,7 @@
         <v>84</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C38" t="s" s="0">
         <v>167</v>
@@ -3740,7 +3740,7 @@
         <v>84</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C39" t="s" s="0">
         <v>167</v>
@@ -3751,7 +3751,7 @@
         <v>84</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C40" t="s" s="0">
         <v>167</v>
@@ -3762,7 +3762,7 @@
         <v>84</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C41" t="s" s="0">
         <v>167</v>
@@ -3773,7 +3773,7 @@
         <v>84</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C42" t="s" s="0">
         <v>167</v>
@@ -3784,7 +3784,7 @@
         <v>84</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C43" t="s" s="0">
         <v>167</v>
@@ -3795,7 +3795,7 @@
         <v>84</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C44" t="s" s="0">
         <v>167</v>
@@ -3806,7 +3806,7 @@
         <v>84</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C45" t="s" s="0">
         <v>167</v>
@@ -3817,7 +3817,7 @@
         <v>84</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C46" t="s" s="0">
         <v>167</v>
@@ -3828,7 +3828,7 @@
         <v>84</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="C47" t="s" s="0">
         <v>167</v>
@@ -3839,7 +3839,7 @@
         <v>84</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C48" t="s" s="0">
         <v>167</v>
@@ -3850,7 +3850,7 @@
         <v>84</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C49" t="s" s="0">
         <v>167</v>
@@ -3861,7 +3861,7 @@
         <v>84</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="C50" t="s" s="0">
         <v>167</v>
@@ -3872,7 +3872,7 @@
         <v>84</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="C51" t="s" s="0">
         <v>167</v>
@@ -3883,7 +3883,7 @@
         <v>84</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="C52" t="s" s="0">
         <v>167</v>
@@ -3894,10 +3894,10 @@
         <v>84</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>87</v>
+        <v>5</v>
       </c>
       <c r="C53" t="s" s="0">
-        <v>167</v>
+        <v>178</v>
       </c>
     </row>
     <row r="54">
@@ -3905,10 +3905,10 @@
         <v>84</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="C54" t="s" s="0">
-        <v>178</v>
+        <v>167</v>
       </c>
     </row>
     <row r="55">
@@ -3916,10 +3916,10 @@
         <v>84</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="C55" t="s" s="0">
-        <v>167</v>
+        <v>179</v>
       </c>
     </row>
     <row r="56">
@@ -3927,10 +3927,10 @@
         <v>84</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C56" t="s" s="0">
-        <v>179</v>
+        <v>167</v>
       </c>
     </row>
     <row r="57">
@@ -3938,31 +3938,20 @@
         <v>84</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="C57" t="s" s="0">
-        <v>167</v>
+        <v>180</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="C58" t="s" s="0">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s" s="0">
-        <v>114</v>
-      </c>
-      <c r="B59" t="s" s="0">
-        <v>115</v>
-      </c>
-      <c r="C59" t="s" s="0">
         <v>175</v>
       </c>
     </row>
@@ -4465,7 +4454,7 @@
         <v>93</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>52</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12">
@@ -4479,7 +4468,7 @@
         <v>93</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>74</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13">
@@ -4613,13 +4602,13 @@
         <v>65</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>93</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23">
@@ -4627,13 +4616,13 @@
         <v>65</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>93</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24">
@@ -4661,7 +4650,7 @@
         <v>93</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26">
@@ -4689,7 +4678,7 @@
         <v>93</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>89</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28">
@@ -4703,7 +4692,7 @@
         <v>93</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>13</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29">
@@ -4731,7 +4720,7 @@
         <v>93</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31">

--- a/data/mall-swarm/mall-auth_structure.xlsx
+++ b/data/mall-swarm/mall-auth_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="182">
   <si>
     <t>Class Name</t>
   </si>
@@ -387,81 +387,81 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>PERMISSION_DENIED</t>
+  </si>
+  <si>
+    <t>ACCOUNT_DISABLED</t>
+  </si>
+  <si>
+    <t>LOGIN_SUCCESS</t>
+  </si>
+  <si>
+    <t>ACCOUNT_EXPIRED</t>
+  </si>
+  <si>
     <t>USERNAME_PASSWORD_ERROR</t>
   </si>
   <si>
+    <t>ACCOUNT_LOCKED</t>
+  </si>
+  <si>
     <t>CREDENTIALS_EXPIRED</t>
   </si>
   <si>
-    <t>LOGIN_SUCCESS</t>
-  </si>
-  <si>
-    <t>ACCOUNT_DISABLED</t>
-  </si>
-  <si>
-    <t>ACCOUNT_EXPIRED</t>
-  </si>
-  <si>
-    <t>PERMISSION_DENIED</t>
-  </si>
-  <si>
-    <t>ACCOUNT_LOCKED</t>
-  </si>
-  <si>
     <t>tokenEndpoint</t>
   </si>
   <si>
     <t>org.springframework.security.oauth2.provider.endpoint.TokenEndpoint</t>
   </si>
   <si>
+    <t>jwtTokenEnhancer</t>
+  </si>
+  <si>
     <t>passwordEncoder</t>
   </si>
   <si>
+    <t>authenticationManager</t>
+  </si>
+  <si>
     <t>userDetailsService</t>
   </si>
   <si>
-    <t>authenticationManager</t>
-  </si>
-  <si>
-    <t>jwtTokenEnhancer</t>
+    <t>expiresIn</t>
+  </si>
+  <si>
+    <t>token</t>
   </si>
   <si>
     <t>refreshToken</t>
   </si>
   <si>
-    <t>token</t>
-  </si>
-  <si>
-    <t>expiresIn</t>
-  </si>
-  <si>
     <t>tokenHead</t>
   </si>
   <si>
+    <t>request</t>
+  </si>
+  <si>
+    <t>javax.servlet.http.HttpServletRequest</t>
+  </si>
+  <si>
     <t>memberService</t>
   </si>
   <si>
-    <t>request</t>
-  </si>
-  <si>
-    <t>javax.servlet.http.HttpServletRequest</t>
-  </si>
-  <si>
     <t>adminService</t>
   </si>
   <si>
+    <t>username</t>
+  </si>
+  <si>
     <t>enabled</t>
   </si>
   <si>
-    <t>username</t>
+    <t>authorities</t>
   </si>
   <si>
     <t>password</t>
   </si>
   <si>
-    <t>authorities</t>
-  </si>
-  <si>
     <t>clientId</t>
   </si>
   <si>
@@ -546,6 +546,9 @@
     <t>178</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>12</t>
   </si>
   <si>
@@ -558,13 +561,13 @@
     <t>52</t>
   </si>
   <si>
+    <t>11</t>
+  </si>
+  <si>
     <t>88</t>
   </si>
   <si>
     <t>17</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
 </sst>
 </file>
@@ -3311,7 +3314,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C58"/>
+  <dimension ref="A1:C71"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3341,10 +3344,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>111</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>113</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>174</v>
@@ -3352,32 +3355,32 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>28</v>
+        <v>111</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>32</v>
+        <v>112</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>167</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>28</v>
+        <v>111</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>30</v>
+        <v>113</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>167</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>167</v>
@@ -3385,10 +3388,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>167</v>
@@ -3396,21 +3399,21 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>167</v>
@@ -3421,10 +3424,10 @@
         <v>37</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11">
@@ -3432,95 +3435,95 @@
         <v>37</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>167</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>167</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>167</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>167</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>167</v>
@@ -3528,10 +3531,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>167</v>
@@ -3542,10 +3545,10 @@
         <v>56</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22">
@@ -3553,7 +3556,7 @@
         <v>56</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>167</v>
@@ -3564,7 +3567,7 @@
         <v>56</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>167</v>
@@ -3575,7 +3578,7 @@
         <v>56</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>167</v>
@@ -3586,10 +3589,10 @@
         <v>56</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26">
@@ -3597,7 +3600,7 @@
         <v>56</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C26" t="s" s="0">
         <v>167</v>
@@ -3608,18 +3611,18 @@
         <v>56</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C28" t="s" s="0">
         <v>167</v>
@@ -3627,175 +3630,175 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>176</v>
+        <v>167</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>176</v>
+        <v>167</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>82</v>
+        <v>5</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>176</v>
+        <v>167</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>167</v>
+        <v>175</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>167</v>
+        <v>174</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>155</v>
+        <v>167</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>167</v>
+        <v>174</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>97</v>
+        <v>21</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>167</v>
+        <v>154</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>167</v>
+        <v>177</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>167</v>
+        <v>177</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>167</v>
+        <v>177</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>167</v>
+        <v>177</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="C44" t="s" s="0">
         <v>167</v>
@@ -3803,10 +3806,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="C45" t="s" s="0">
         <v>167</v>
@@ -3814,13 +3817,13 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="C46" t="s" s="0">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="47">
@@ -3828,10 +3831,10 @@
         <v>84</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C47" t="s" s="0">
-        <v>167</v>
+        <v>154</v>
       </c>
     </row>
     <row r="48">
@@ -3839,10 +3842,10 @@
         <v>84</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C48" t="s" s="0">
-        <v>167</v>
+        <v>179</v>
       </c>
     </row>
     <row r="49">
@@ -3850,7 +3853,7 @@
         <v>84</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="C49" t="s" s="0">
         <v>167</v>
@@ -3861,7 +3864,7 @@
         <v>84</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C50" t="s" s="0">
         <v>167</v>
@@ -3872,7 +3875,7 @@
         <v>84</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C51" t="s" s="0">
         <v>167</v>
@@ -3883,7 +3886,7 @@
         <v>84</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="C52" t="s" s="0">
         <v>167</v>
@@ -3894,10 +3897,10 @@
         <v>84</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>5</v>
+        <v>104</v>
       </c>
       <c r="C53" t="s" s="0">
-        <v>178</v>
+        <v>167</v>
       </c>
     </row>
     <row r="54">
@@ -3905,7 +3908,7 @@
         <v>84</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="C54" t="s" s="0">
         <v>167</v>
@@ -3916,10 +3919,10 @@
         <v>84</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="C55" t="s" s="0">
-        <v>179</v>
+        <v>167</v>
       </c>
     </row>
     <row r="56">
@@ -3927,7 +3930,7 @@
         <v>84</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="C56" t="s" s="0">
         <v>167</v>
@@ -3938,21 +3941,164 @@
         <v>84</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C57" t="s" s="0">
-        <v>180</v>
+        <v>167</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B58" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="C58" t="s" s="0">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B59" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="C59" t="s" s="0">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B60" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="C60" t="s" s="0">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B61" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="C61" t="s" s="0">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B62" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="C62" t="s" s="0">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B63" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="C63" t="s" s="0">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B64" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="C64" t="s" s="0">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B65" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C65" t="s" s="0">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B66" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="C66" t="s" s="0">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B67" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C67" t="s" s="0">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B68" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C68" t="s" s="0">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B69" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="C69" t="s" s="0">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="0">
         <v>114</v>
       </c>
-      <c r="B58" t="s" s="0">
+      <c r="B70" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="C70" t="s" s="0">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="B71" t="s" s="0">
         <v>115</v>
       </c>
-      <c r="C58" t="s" s="0">
-        <v>175</v>
+      <c r="C71" t="s" s="0">
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -4440,7 +4586,7 @@
         <v>93</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11">
@@ -4454,7 +4600,7 @@
         <v>93</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>74</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12">
@@ -4482,7 +4628,7 @@
         <v>93</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>46</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14">
@@ -4496,7 +4642,7 @@
         <v>93</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15">
@@ -4524,7 +4670,7 @@
         <v>93</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17">
@@ -4552,7 +4698,7 @@
         <v>93</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>4</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19">
@@ -4560,13 +4706,13 @@
         <v>74</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>93</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>140</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -4588,13 +4734,13 @@
         <v>65</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>93</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22">
@@ -4602,13 +4748,13 @@
         <v>65</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>93</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23">
@@ -4616,7 +4762,7 @@
         <v>65</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>93</v>
@@ -4630,7 +4776,7 @@
         <v>65</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>93</v>
@@ -4650,7 +4796,7 @@
         <v>93</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>89</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26">
@@ -4664,7 +4810,7 @@
         <v>93</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>13</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27">
@@ -4678,7 +4824,7 @@
         <v>93</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>13</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28">
@@ -4692,7 +4838,7 @@
         <v>93</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>100</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29">
